--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinyuzhou\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\osgit\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE9710A-E279-4184-AFA8-1E0425EC0F7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8388"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -118,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -143,6 +152,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -191,7 +203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19050" y="28575"/>
-          <a:ext cx="1181100" cy="314325"/>
+          <a:ext cx="1064895" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -503,12 +515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -723,7 +735,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>43112</v>
       </c>
       <c r="B11" s="9">
@@ -823,124 +835,304 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="6">
+        <v>43168</v>
+      </c>
+      <c r="B16" s="7">
+        <v>300</v>
+      </c>
+      <c r="C16" s="7">
+        <v>116</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="8">
+        <v>43175</v>
+      </c>
+      <c r="B17" s="9">
+        <v>304</v>
+      </c>
+      <c r="C17" s="9">
+        <v>117</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>459</v>
+      </c>
+      <c r="F17" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="6">
+        <v>43182</v>
+      </c>
+      <c r="B18" s="7">
+        <v>307</v>
+      </c>
+      <c r="C18" s="7">
+        <v>118</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>375</v>
+      </c>
+      <c r="F18" s="7">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="8">
+        <v>43189</v>
+      </c>
+      <c r="B19" s="9">
+        <v>309</v>
+      </c>
+      <c r="C19" s="9">
+        <v>120</v>
+      </c>
+      <c r="D19" s="9">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9">
+        <v>451</v>
+      </c>
+      <c r="F19" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="6">
+        <v>43203</v>
+      </c>
+      <c r="B20" s="7">
+        <v>312</v>
+      </c>
+      <c r="C20" s="7">
+        <v>121</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>944</v>
+      </c>
+      <c r="F20" s="7">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="8">
+        <v>43210</v>
+      </c>
+      <c r="B21" s="9">
+        <v>315</v>
+      </c>
+      <c r="C21" s="9">
+        <v>123</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>218</v>
+      </c>
+      <c r="F21" s="9">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="6">
+        <v>43217</v>
+      </c>
+      <c r="B22" s="7">
+        <v>319</v>
+      </c>
+      <c r="C22" s="7">
+        <v>126</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>315</v>
+      </c>
+      <c r="F22" s="7">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="10">
+        <v>43224</v>
+      </c>
+      <c r="B23" s="9">
+        <v>321</v>
+      </c>
+      <c r="C23" s="9">
+        <v>128</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>350</v>
+      </c>
+      <c r="F23" s="9">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="6">
+        <v>43231</v>
+      </c>
+      <c r="B24" s="7">
+        <v>321</v>
+      </c>
+      <c r="C24" s="7">
+        <v>128</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>555</v>
+      </c>
+      <c r="F24" s="7">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="8">
+        <v>43238</v>
+      </c>
+      <c r="B25" s="9">
+        <v>322</v>
+      </c>
+      <c r="C25" s="9">
+        <v>129</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>442</v>
+      </c>
+      <c r="F25" s="9">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="6">
+        <v>43245</v>
+      </c>
+      <c r="B26" s="7">
+        <v>324</v>
+      </c>
+      <c r="C26" s="7">
+        <v>130</v>
+      </c>
+      <c r="D26" s="7">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7">
+        <v>658</v>
+      </c>
+      <c r="F26" s="7">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="8">
+        <v>43252</v>
+      </c>
+      <c r="B27" s="9">
+        <v>330</v>
+      </c>
+      <c r="C27" s="9">
+        <v>136</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9">
+        <v>683</v>
+      </c>
+      <c r="F27" s="9">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="6">
+        <v>43259</v>
+      </c>
+      <c r="B28" s="7">
+        <v>334</v>
+      </c>
+      <c r="C28" s="7">
+        <v>137</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>485</v>
+      </c>
+      <c r="F28" s="7">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="8">
+        <v>43266</v>
+      </c>
+      <c r="B29" s="9">
+        <v>335</v>
+      </c>
+      <c r="C29" s="9">
+        <v>139</v>
+      </c>
+      <c r="D29" s="9">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9">
+        <v>289</v>
+      </c>
+      <c r="F29" s="9">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B30" s="7">
+        <v>336</v>
+      </c>
+      <c r="C30" s="7">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>443</v>
+      </c>
+      <c r="F30" s="7">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1193,7 +1385,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UAVStack统计数据.xlsx
+++ b/UAVStack统计数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\osgit\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE9710A-E279-4184-AFA8-1E0425EC0F7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE6658D4-282B-4A9C-9B53-8CCA9D5301C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,9 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1135,20 +1135,44 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="8">
+        <v>43280</v>
+      </c>
+      <c r="B31" s="9">
+        <v>339</v>
+      </c>
+      <c r="C31" s="9">
+        <v>140</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>299</v>
+      </c>
+      <c r="F31" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="6">
+        <v>43287</v>
+      </c>
+      <c r="B32" s="7">
+        <v>340</v>
+      </c>
+      <c r="C32" s="7">
+        <v>141</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>317</v>
+      </c>
+      <c r="F32" s="7">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
